--- a/biology/Botanique/Tritoniopsis_antholyza/Tritoniopsis_antholyza.xlsx
+++ b/biology/Botanique/Tritoniopsis_antholyza/Tritoniopsis_antholyza.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tritoniopsis antholyza est une espèce de plantes à fleurs de la famille des Iridaceae. C'est un géophyte tubéreux qui pousse principalement dans le biome subtropical[1],
-[2]. Son nom commun en anglais est « Karkarbloom » ou « Karkar Reedpipe »[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tritoniopsis antholyza est une espèce de plantes à fleurs de la famille des Iridaceae. C'est un géophyte tubéreux qui pousse principalement dans le biome subtropical,
+. Son nom commun en anglais est « Karkarbloom » ou « Karkar Reedpipe ».
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Comme d’autres espèces du même genre, Tritoniopsis antholyza est endémique du sud-ouest de l’Afrique du Sud.
 </t>
@@ -543,11 +557,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le nom correct complet (avec auteur) de ce taxon est Tritoniopsis antholyza (Poir.) Goldblatt[4].
-L'espèce a été initialement classée dans le genre Gladiolus sous le basionyme Gladiolus antholyza Poir.[4].
-Tritoniopsis antholyza a pour synonymes[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le nom correct complet (avec auteur) de ce taxon est Tritoniopsis antholyza (Poir.) Goldblatt.
+L'espèce a été initialement classée dans le genre Gladiolus sous le basionyme Gladiolus antholyza Poir..
+Tritoniopsis antholyza a pour synonymes :
 Anapalina longituba Fourc.
 Anapalina nervosa (Thunb.) G.J.Lewis
 Antholyza nervosa Thunb.
